--- a/Data/conventional_production.xlsx
+++ b/Data/conventional_production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egli\Nextcloud\Cloud\FoodSystem\Git\LeVe_Solawi\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26AD6D3-B1DE-4D38-AA24-0D6091B9DBE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21738CC-9073-4874-B61C-BF36659A4D7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13130" windowHeight="6110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Kultur</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>Herkunft</t>
-  </si>
-  <si>
-    <t>Anbauflaeche_qm</t>
-  </si>
-  <si>
-    <t>Erntemenge_kg</t>
   </si>
   <si>
     <t>Ertrag_kg_qm</t>
@@ -437,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,306 +452,216 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>38000</v>
-      </c>
-      <c r="E2">
-        <v>41200</v>
-      </c>
-      <c r="F2">
-        <v>1.091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>3094000</v>
-      </c>
-      <c r="E3">
-        <v>3021500</v>
-      </c>
-      <c r="F3">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4.1769999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>2.4359999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>58341100</v>
-      </c>
-      <c r="E5">
-        <v>243676010</v>
-      </c>
-      <c r="F5">
-        <v>4.1769999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>157000</v>
-      </c>
-      <c r="E6">
-        <v>381800</v>
-      </c>
-      <c r="F6">
-        <v>2.4359999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D7">
+        <v>2.7201666666666702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>27666.666666666701</v>
-      </c>
-      <c r="E7">
-        <v>66655</v>
-      </c>
-      <c r="F7">
-        <v>2.7201666666666702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1.9750000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>344000</v>
-      </c>
-      <c r="E8">
-        <v>679700</v>
-      </c>
-      <c r="F8">
-        <v>1.9750000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>97000</v>
-      </c>
-      <c r="E9">
-        <v>233400</v>
-      </c>
-      <c r="F9">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3.8420000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>4.0119999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>793000</v>
-      </c>
-      <c r="E11">
-        <v>3047000</v>
-      </c>
-      <c r="F11">
-        <v>3.8420000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>203000</v>
-      </c>
-      <c r="E12">
-        <v>813800</v>
-      </c>
-      <c r="F12">
-        <v>4.0119999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D13">
+        <v>8.8520000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
-        <v>63000</v>
-      </c>
-      <c r="E13">
-        <v>553010</v>
-      </c>
-      <c r="F13">
-        <v>8.8520000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>530000</v>
-      </c>
-      <c r="E14">
-        <v>3528300</v>
-      </c>
-      <c r="F14">
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2.2240000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>117000</v>
-      </c>
-      <c r="E15">
-        <v>89300</v>
-      </c>
-      <c r="F15">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>35000</v>
-      </c>
-      <c r="E16">
-        <v>78900</v>
-      </c>
-      <c r="F16">
-        <v>2.2240000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>5176000</v>
-      </c>
-      <c r="E17">
-        <v>26388000</v>
-      </c>
-      <c r="F17">
         <v>5.0979999999999999</v>
       </c>
     </row>
